--- a/code_profiling_analysis.xlsx
+++ b/code_profiling_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kilian\LaCAM2_fact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2B7465-5E4F-4F32-9D81-17E6EBD56FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEC58B-62BF-463E-AB29-2ECFEF918FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{74E95849-E7DA-48A6-A720-39BC57AEAE3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>Map</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>14.6</t>
-  </si>
-  <si>
-    <t>9.1</t>
   </si>
   <si>
     <t>2.1</t>
@@ -681,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64380A4E-5F21-484A-9553-07015E7C0A80}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -722,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -981,26 +978,26 @@
       <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1014,28 +1011,28 @@
         <v>100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6">
         <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1049,28 +1046,28 @@
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1084,28 +1081,28 @@
         <v>200</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6">
         <v>93</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>12.000000000000004</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>12.000000000000004</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1140,7 +1137,7 @@
         <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1160,22 +1157,22 @@
         <v>291</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1195,22 +1192,22 @@
         <v>875</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -1230,22 +1227,22 @@
         <v>1497</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>33.099999999999994</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
         <v>43</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>33.099999999999994</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1253,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8">
         <v>50</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
@@ -1283,17 +1280,17 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8">
         <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
@@ -1313,17 +1310,17 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8">
         <v>150</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
@@ -1343,17 +1340,17 @@
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8">
         <v>200</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
@@ -1373,13 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8">
         <v>250</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8">
@@ -1403,17 +1400,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8">
         <v>300</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
@@ -1433,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8">
         <v>400</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8">
@@ -1463,17 +1460,17 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8">
         <v>500</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -1503,7 +1500,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>23</v>
@@ -1670,12 +1667,12 @@
         <v>142</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>23</v>
@@ -1705,12 +1702,12 @@
         <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>23</v>
@@ -1740,12 +1737,12 @@
         <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>23</v>
@@ -1775,12 +1772,12 @@
         <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>23</v>
@@ -1810,15 +1807,15 @@
         <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="8">
         <v>100</v>
@@ -1843,15 +1840,15 @@
         <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="8">
         <v>200</v>
@@ -1876,15 +1873,15 @@
         <v>151</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="8">
         <v>300</v>
@@ -1909,15 +1906,15 @@
         <v>176</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="8">
         <v>500</v>
@@ -1942,15 +1939,15 @@
         <v>208</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8">
         <v>700</v>
@@ -1975,7 +1972,7 @@
         <v>188</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
